--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25718"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/henriquerb1_al_insper_edu_br/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henri\Documents\Insper\Ciência de Dados\Projeto 1\22-2a-cd-p1-grupo_henriquerb1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9D16A8C-A97D-43A8-987B-10E93B12A345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6317309D-6B2B-4381-AD26-F0AB3255932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4603,7 +4603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4621,6 +4621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4923,10 +4924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G389"/>
+  <dimension ref="A1:G443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="D346" sqref="D346"/>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="E395" sqref="E395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10391,6 +10392,762 @@
         <v>0</v>
       </c>
     </row>
+    <row r="390" spans="1:4">
+      <c r="A390" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C390">
+        <v>93</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C391">
+        <v>10</v>
+      </c>
+      <c r="D391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C392">
+        <v>16</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C393">
+        <v>59</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C394">
+        <v>19</v>
+      </c>
+      <c r="D394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C395">
+        <v>87</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="7" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C396">
+        <v>76</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C397">
+        <v>95</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C398">
+        <v>29</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C399">
+        <v>7</v>
+      </c>
+      <c r="D399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C400">
+        <v>62</v>
+      </c>
+      <c r="D400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C401">
+        <v>20</v>
+      </c>
+      <c r="D401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C402">
+        <v>71</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C403">
+        <v>89</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C404">
+        <v>70</v>
+      </c>
+      <c r="D404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C405">
+        <v>32</v>
+      </c>
+      <c r="D405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C406">
+        <v>35</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" t="s">
+        <v>428</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C407">
+        <v>55</v>
+      </c>
+      <c r="D407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C408">
+        <v>83</v>
+      </c>
+      <c r="D408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C409">
+        <v>90</v>
+      </c>
+      <c r="D409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C410">
+        <v>97</v>
+      </c>
+      <c r="D410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C411">
+        <v>30</v>
+      </c>
+      <c r="D411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C412">
+        <v>44</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C413">
+        <v>53</v>
+      </c>
+      <c r="D413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C414">
+        <v>6</v>
+      </c>
+      <c r="D414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C415">
+        <v>88</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C416">
+        <v>37</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C417">
+        <v>17</v>
+      </c>
+      <c r="D417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C418">
+        <v>57</v>
+      </c>
+      <c r="D418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C419">
+        <v>24</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C420">
+        <v>55</v>
+      </c>
+      <c r="D420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C421">
+        <v>7</v>
+      </c>
+      <c r="D421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C422">
+        <v>83</v>
+      </c>
+      <c r="D422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C423">
+        <v>10</v>
+      </c>
+      <c r="D423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C424">
+        <v>12</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C425">
+        <v>91</v>
+      </c>
+      <c r="D425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C426">
+        <v>10</v>
+      </c>
+      <c r="D426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C427">
+        <v>39</v>
+      </c>
+      <c r="D427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C428">
+        <v>95</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C429">
+        <v>17</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C430">
+        <v>19</v>
+      </c>
+      <c r="D430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C431">
+        <v>65</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C432">
+        <v>82</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C433">
+        <v>26</v>
+      </c>
+      <c r="D433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C434">
+        <v>37</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C435">
+        <v>35</v>
+      </c>
+      <c r="D435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C436">
+        <v>63</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C437">
+        <v>48</v>
+      </c>
+      <c r="D437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C438">
+        <v>99</v>
+      </c>
+      <c r="D438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C439">
+        <v>83</v>
+      </c>
+      <c r="D439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C440">
+        <v>34</v>
+      </c>
+      <c r="D440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C441">
+        <v>62</v>
+      </c>
+      <c r="D441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C442">
+        <v>22</v>
+      </c>
+      <c r="D442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C443">
+        <v>62</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F6:G6"/>
@@ -10402,10 +11159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D361"/>
+  <dimension ref="A1:D307"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:K11"/>
+    <sheetView topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="E361" sqref="A308:E361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14711,771 +15468,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
-      <c r="A308" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C308">
-        <v>93</v>
-      </c>
-      <c r="D308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4">
-      <c r="A309" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B309" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C309">
-        <v>10</v>
-      </c>
-      <c r="D309">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4">
-      <c r="A310" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B310" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C310">
-        <v>16</v>
-      </c>
-      <c r="D310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4">
-      <c r="A311" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B311" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C311">
-        <v>59</v>
-      </c>
-      <c r="D311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4">
-      <c r="A312" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B312" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C312">
-        <v>19</v>
-      </c>
-      <c r="D312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4">
-      <c r="A313" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C313">
-        <v>87</v>
-      </c>
-      <c r="D313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4">
-      <c r="A314" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C314">
-        <v>76</v>
-      </c>
-      <c r="D314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4">
-      <c r="A315" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B315" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C315">
-        <v>95</v>
-      </c>
-      <c r="D315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4">
-      <c r="A316" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B316" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C316">
-        <v>29</v>
-      </c>
-      <c r="D316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4">
-      <c r="A317" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B317" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C317">
-        <v>7</v>
-      </c>
-      <c r="D317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4">
-      <c r="A318" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C318">
-        <v>62</v>
-      </c>
-      <c r="D318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4">
-      <c r="A319" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C319">
-        <v>20</v>
-      </c>
-      <c r="D319">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4">
-      <c r="A320" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B320" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C320">
-        <v>71</v>
-      </c>
-      <c r="D320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4">
-      <c r="A321" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B321" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C321">
-        <v>89</v>
-      </c>
-      <c r="D321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4">
-      <c r="A322" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C322">
-        <v>70</v>
-      </c>
-      <c r="D322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4">
-      <c r="A323" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B323" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C323">
-        <v>32</v>
-      </c>
-      <c r="D323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4">
-      <c r="A324" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B324" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C324">
-        <v>35</v>
-      </c>
-      <c r="D324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4">
-      <c r="A325" t="s">
-        <v>428</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C325">
-        <v>55</v>
-      </c>
-      <c r="D325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4">
-      <c r="A326" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B326" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C326">
-        <v>83</v>
-      </c>
-      <c r="D326">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4">
-      <c r="A327" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B327" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C327">
-        <v>90</v>
-      </c>
-      <c r="D327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4">
-      <c r="A328" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B328" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C328">
-        <v>97</v>
-      </c>
-      <c r="D328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4">
-      <c r="A329" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B329" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C329">
-        <v>30</v>
-      </c>
-      <c r="D329">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4">
-      <c r="A330" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B330" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C330">
-        <v>44</v>
-      </c>
-      <c r="D330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4">
-      <c r="A331" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B331" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C331">
-        <v>53</v>
-      </c>
-      <c r="D331">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4">
-      <c r="A332" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B332" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C332">
-        <v>6</v>
-      </c>
-      <c r="D332">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4">
-      <c r="A333" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C333">
-        <v>88</v>
-      </c>
-      <c r="D333">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4">
-      <c r="A334" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B334" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C334">
-        <v>37</v>
-      </c>
-      <c r="D334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4">
-      <c r="A335" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C335">
-        <v>17</v>
-      </c>
-      <c r="D335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4">
-      <c r="A336" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C336">
-        <v>57</v>
-      </c>
-      <c r="D336">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4">
-      <c r="A337" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B337" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C337">
-        <v>24</v>
-      </c>
-      <c r="D337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4">
-      <c r="A338" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B338" t="s">
-        <v>1452</v>
-      </c>
-      <c r="C338">
-        <v>55</v>
-      </c>
-      <c r="D338">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4">
-      <c r="A339" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B339" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C339">
-        <v>7</v>
-      </c>
-      <c r="D339">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4">
-      <c r="A340" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B340" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C340">
-        <v>83</v>
-      </c>
-      <c r="D340">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4">
-      <c r="A341" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B341" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C341">
-        <v>10</v>
-      </c>
-      <c r="D341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4">
-      <c r="A342" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C342">
-        <v>12</v>
-      </c>
-      <c r="D342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4">
-      <c r="A343" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B343" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C343">
-        <v>91</v>
-      </c>
-      <c r="D343">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4">
-      <c r="A344" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C344">
-        <v>10</v>
-      </c>
-      <c r="D344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4">
-      <c r="A345" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C345">
-        <v>39</v>
-      </c>
-      <c r="D345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4">
-      <c r="A346" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B346" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C346">
-        <v>95</v>
-      </c>
-      <c r="D346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4">
-      <c r="A347" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C347">
-        <v>17</v>
-      </c>
-      <c r="D347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4">
-      <c r="A348" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B348" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C348">
-        <v>19</v>
-      </c>
-      <c r="D348">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4">
-      <c r="A349" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B349" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C349">
-        <v>65</v>
-      </c>
-      <c r="D349">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4">
-      <c r="A350" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B350" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C350">
-        <v>82</v>
-      </c>
-      <c r="D350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4">
-      <c r="A351" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B351" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C351">
-        <v>26</v>
-      </c>
-      <c r="D351">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4">
-      <c r="A352" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B352" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C352">
-        <v>37</v>
-      </c>
-      <c r="D352">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4">
-      <c r="A353" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B353" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C353">
-        <v>35</v>
-      </c>
-      <c r="D353">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4">
-      <c r="A354" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C354">
-        <v>63</v>
-      </c>
-      <c r="D354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4">
-      <c r="A355" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C355">
-        <v>48</v>
-      </c>
-      <c r="D355">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4">
-      <c r="A356" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B356" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C356">
-        <v>99</v>
-      </c>
-      <c r="D356">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4">
-      <c r="A357" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C357">
-        <v>83</v>
-      </c>
-      <c r="D357">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4">
-      <c r="A358" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C358">
-        <v>34</v>
-      </c>
-      <c r="D358">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4">
-      <c r="A359" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C359">
-        <v>62</v>
-      </c>
-      <c r="D359">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4">
-      <c r="A360" t="s">
-        <v>1495</v>
-      </c>
-      <c r="B360" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C360">
-        <v>22</v>
-      </c>
-      <c r="D360">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4">
-      <c r="A361" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B361" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C361">
-        <v>62</v>
-      </c>
-      <c r="D361">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15662,22 +15666,43 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04F7E4A8-DAE9-4402-9DFC-F2B255B9D73E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF33279-1657-48AD-A5B1-F1635FA162DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54CAFEAC-F809-4464-85E9-58097CCFFBEF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54CAFEAC-F809-4464-85E9-58097CCFFBEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3a227c51-10a3-4ef1-bb21-ff2ced2372df"/>
+    <ds:schemaRef ds:uri="c68cd893-3131-4479-bd33-a29536e12ee4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF33279-1657-48AD-A5B1-F1635FA162DE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04F7E4A8-DAE9-4402-9DFC-F2B255B9D73E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>